--- a/rhla_analysis/rhla1_3_zipf_result/k7.xlsx
+++ b/rhla_analysis/rhla1_3_zipf_result/k7.xlsx
@@ -457,21 +457,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.99530694028597</v>
+        <v>1.99530694028598</v>
       </c>
       <c r="B2" t="n">
-        <v>98.09710027479093</v>
+        <v>98.09710027479092</v>
       </c>
       <c r="C2" t="n">
         <v>0.1223358908780904</v>
       </c>
       <c r="D2" t="n">
-        <v>49.16391473119998</v>
+        <v>49.16391473119971</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.5464418786561416</v>
+        <v>0.546441878656146</v>
       </c>
       <c r="B3" t="n">
         <v>24.26605843479642</v>
@@ -480,12 +480,12 @@
         <v>0.1261722080136402</v>
       </c>
       <c r="D3" t="n">
-        <v>44.40739149509125</v>
+        <v>44.40739149509088</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.3315721870938996</v>
+        <v>0.331572187093903</v>
       </c>
       <c r="B4" t="n">
         <v>20.95786431177285</v>
@@ -494,40 +494,40 @@
         <v>0.1091219096334186</v>
       </c>
       <c r="D4" t="n">
-        <v>63.20754613184034</v>
+        <v>63.20754613183968</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>10.28049209107061</v>
+        <v>10.28049209107059</v>
       </c>
       <c r="B5" t="n">
-        <v>506.8016428303848</v>
+        <v>506.8016428303849</v>
       </c>
       <c r="C5" t="n">
         <v>0.1155157715260017</v>
       </c>
       <c r="D5" t="n">
-        <v>49.29741089636951</v>
+        <v>49.29741089636961</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1.567301273770848</v>
+        <v>1.567301273770843</v>
       </c>
       <c r="B6" t="n">
-        <v>56.65271477471471</v>
+        <v>56.65271477471472</v>
       </c>
       <c r="C6" t="n">
         <v>0.1300085251491901</v>
       </c>
       <c r="D6" t="n">
-        <v>36.14666543236523</v>
+        <v>36.14666543236536</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.2180124672840058</v>
+        <v>0.2180124672840072</v>
       </c>
       <c r="B7" t="n">
         <v>18.96240682999998</v>
@@ -536,12 +536,12 @@
         <v>0.1210571184995737</v>
       </c>
       <c r="D7" t="n">
-        <v>86.9785433201743</v>
+        <v>86.97854332017371</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.4784355763946241</v>
+        <v>0.4784355763946234</v>
       </c>
       <c r="B8" t="n">
         <v>35.80408806675229</v>
@@ -550,12 +550,12 @@
         <v>0.1283034953111679</v>
       </c>
       <c r="D8" t="n">
-        <v>74.83575602082797</v>
+        <v>74.83575602082809</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4.689997897243432</v>
+        <v>4.689997897243391</v>
       </c>
       <c r="B9" t="n">
         <v>213.738824079446</v>
@@ -564,12 +564,12 @@
         <v>0.1193520886615516</v>
       </c>
       <c r="D9" t="n">
-        <v>45.57333047101621</v>
+        <v>45.57333047101661</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.196562229686622</v>
+        <v>0.1965622296866232</v>
       </c>
       <c r="B10" t="n">
         <v>18.36524761825665</v>
@@ -578,12 +578,12 @@
         <v>0.1210571184995737</v>
       </c>
       <c r="D10" t="n">
-        <v>93.43223083873364</v>
+        <v>93.43223083873309</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1.501233254128082</v>
+        <v>1.501233254128076</v>
       </c>
       <c r="B11" t="n">
         <v>280.9204858926315</v>
@@ -592,7 +592,7 @@
         <v>0.1227621483375959</v>
       </c>
       <c r="D11" t="n">
-        <v>187.1264742638481</v>
+        <v>187.1264742638488</v>
       </c>
     </row>
   </sheetData>
